--- a/biology/Botanique/Epiphyllum_oxypetalum/Epiphyllum_oxypetalum.xlsx
+++ b/biology/Botanique/Epiphyllum_oxypetalum/Epiphyllum_oxypetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum oxypetalum, l'Épiphyllum à larges feuilles, est une espèce de plantes épiphytes appartenant à la famille des Cactaceae. C'est une espèce remarquable d'Epiphyllum qui ne fleurit que la nuit, parfois pour ne donner seulement qu'une ou deux grandes fleurs par an.
 </t>
@@ -511,10 +523,12 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxypetalum signifie en latin "à pétales pointus".
-En chinois, on l'appelle 昙花一现 (tān huá yĭ xiàn) qui signifie « qui dure peu de temps », car les fleurs de cette plante fleurissent à la tombée de la nuit et se fanent dès le lendemain matin. En japonais, elle porte le nom 月下美人 (gekka bijin), littéralement « la belle sous la lune ». Les Vietnamiens la nomment Hoa Quỳnh [1] mais au quotidien il existe parfois quelques confusions avec d'autres variétés d'Epiphyllum, aussi hoa quỳnh trắng désigne plutôt Epiphyllum oxypetalum alors que hoa quỳnh đỏ correspond à Epiphyllum ackermannii. De manière plus poétique, on parle aussi de Hoa Dạ Quỳnh Hương.
+En chinois, on l'appelle 昙花一现 (tān huá yĭ xiàn) qui signifie « qui dure peu de temps », car les fleurs de cette plante fleurissent à la tombée de la nuit et se fanent dès le lendemain matin. En japonais, elle porte le nom 月下美人 (gekka bijin), littéralement « la belle sous la lune ». Les Vietnamiens la nomment Hoa Quỳnh  mais au quotidien il existe parfois quelques confusions avec d'autres variétés d'Epiphyllum, aussi hoa quỳnh trắng désigne plutôt Epiphyllum oxypetalum alors que hoa quỳnh đỏ correspond à Epiphyllum ackermannii. De manière plus poétique, on parle aussi de Hoa Dạ Quỳnh Hương.
 Elle est souvent appelée « belle de nuit » (à ne pas confondre avec Mirabilis jalapa) ou « fleur de lune » car elle ne s'ouvre que la nuit, ou encore « berceau de Moïse » aux Antilles. Dans les régions au climat non tropical, ce peut n'être qu'une à deux nuits par an, ce qui en fait un phénomène assez exceptionnel.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Épiphyllum à larges feuilles
@@ -584,7 +600,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum oxypetalum est originaire du sud du Mexique et de vastes zones de l'Amérique du Sud. Il est largement cultivé et a échappé à la culture dans les régions tropicales. Il est naturalisé en Chine.
 </t>
@@ -615,13 +633,50 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Epiphyllum oxypetalum est l'espèce le plus souvent cultivée du genre Epiphyllum. C'est une plante à croissance rapide facile à cultiver.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epiphyllum oxypetalum est l'espèce le plus souvent cultivée du genre Epiphyllum. C'est une plante à croissance rapide facile à cultiver.
 L'épiphyllum n'aime pas le soleil direct et pousse très bien à l'ombre d'un arbre dès que les températures ne descendent plus sous les 10-12 °C. En hiver, on placera la plante en serre froide où la température ne devra pas être inférieure à 10 °C.
 La plante fleurit mieux lorsque ses racines sont à l'étroit. On la plantera donc dans un pot à peine plus grand que le système racinaire existant dans un substrat très drainant.
-Vie éphémère et mort d'une belle de nuit, la fleur de lune
-Reportage fait entre le 8 et le 13 septembre 2008 à Cannes, la lune étant décroissante, à moitié pleine, le temps encore très doux et humide (pas de mistral frais). La plante avait été reproduite par bouture un an auparavant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Epiphyllum_oxypetalum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epiphyllum_oxypetalum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie éphémère et mort d'une belle de nuit, la fleur de lune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reportage fait entre le 8 et le 13 septembre 2008 à Cannes, la lune étant décroissante, à moitié pleine, le temps encore très doux et humide (pas de mistral frais). La plante avait été reproduite par bouture un an auparavant.
 			4 jours avant leur floraison. On voit que les tiges sortent des feuilles.
 			Une fleur proche de son épanouissement.
 			Matin de la floraison, la fleur commence à blanchir.
@@ -632,8 +687,43 @@
 			22 h 42, à complet épanouissement un parfum délicat s'en dégage.
 			Le lendemain matin elle pend
 			Aspect général, 2 jours après floraison.
-Animation en time-lapse : Floraison nocturne de Sélenicereus (Epiphyllum oxypetalum)
-Floraisons Nocturnes en time-lapse et en 3D - A voir en anaglyphe Rouge et Cyan (Color)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Epiphyllum_oxypetalum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epiphyllum_oxypetalum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Animation en time-lapse : Floraison nocturne de Sélenicereus (Epiphyllum oxypetalum)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Floraisons Nocturnes en time-lapse et en 3D - A voir en anaglyphe Rouge et Cyan (Color)
 Remplacer Off par 3 sec et presser la touche a pour lancer l'animation.
 Ou cliquez sur les flèches à droite pour avancer en pas à pas, et à gauche pour reculer.</t>
         </is>
